--- a/natmiOut/OldD0/LR-pairs_lrc2p/Pltp-Abca1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Pltp-Abca1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.97742532597121</v>
+        <v>5.138644333333333</v>
       </c>
       <c r="H2">
-        <v>4.97742532597121</v>
+        <v>15.415933</v>
       </c>
       <c r="I2">
-        <v>0.1774564727742468</v>
+        <v>0.1788080791399461</v>
       </c>
       <c r="J2">
-        <v>0.1774564727742468</v>
+        <v>0.1788080791399461</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.7358662697192</v>
+        <v>29.880108</v>
       </c>
       <c r="N2">
-        <v>29.7358662697192</v>
+        <v>89.64032399999999</v>
       </c>
       <c r="O2">
-        <v>0.4870925391936179</v>
+        <v>0.4868991363731112</v>
       </c>
       <c r="P2">
-        <v>0.4870925391936179</v>
+        <v>0.4868991363731112</v>
       </c>
       <c r="Q2">
-        <v>148.0080538605934</v>
+        <v>153.543247653588</v>
       </c>
       <c r="R2">
-        <v>148.0080538605934</v>
+        <v>1381.889228882292</v>
       </c>
       <c r="S2">
-        <v>0.086437723919951</v>
+        <v>0.08706149930977465</v>
       </c>
       <c r="T2">
-        <v>0.086437723919951</v>
+        <v>0.08706149930977466</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.97742532597121</v>
+        <v>5.138644333333333</v>
       </c>
       <c r="H3">
-        <v>4.97742532597121</v>
+        <v>15.415933</v>
       </c>
       <c r="I3">
-        <v>0.1774564727742468</v>
+        <v>0.1788080791399461</v>
       </c>
       <c r="J3">
-        <v>0.1774564727742468</v>
+        <v>0.1788080791399461</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.2494859431407</v>
+        <v>25.29401133333333</v>
       </c>
       <c r="N3">
-        <v>25.2494859431407</v>
+        <v>75.882034</v>
       </c>
       <c r="O3">
-        <v>0.4136027553332855</v>
+        <v>0.412168265041468</v>
       </c>
       <c r="P3">
-        <v>0.4136027553332855</v>
+        <v>0.412168265041468</v>
       </c>
       <c r="Q3">
-        <v>125.6774308011426</v>
+        <v>129.9769280053024</v>
       </c>
       <c r="R3">
-        <v>125.6774308011426</v>
+        <v>1169.792352047722</v>
       </c>
       <c r="S3">
-        <v>0.07339648609115464</v>
+        <v>0.07369901575450907</v>
       </c>
       <c r="T3">
-        <v>0.07339648609115464</v>
+        <v>0.07369901575450907</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.97742532597121</v>
+        <v>5.138644333333333</v>
       </c>
       <c r="H4">
-        <v>4.97742532597121</v>
+        <v>15.415933</v>
       </c>
       <c r="I4">
-        <v>0.1774564727742468</v>
+        <v>0.1788080791399461</v>
       </c>
       <c r="J4">
-        <v>0.1774564727742468</v>
+        <v>0.1788080791399461</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.06232123117796</v>
+        <v>6.194048666666666</v>
       </c>
       <c r="N4">
-        <v>6.06232123117796</v>
+        <v>18.582146</v>
       </c>
       <c r="O4">
-        <v>0.0993047054730966</v>
+        <v>0.1009325985854208</v>
       </c>
       <c r="P4">
-        <v>0.0993047054730966</v>
+        <v>0.1009325985854208</v>
       </c>
       <c r="Q4">
-        <v>30.17475123023815</v>
+        <v>31.82901308135755</v>
       </c>
       <c r="R4">
-        <v>30.17475123023815</v>
+        <v>286.4611177322179</v>
       </c>
       <c r="S4">
-        <v>0.01762226276314116</v>
+        <v>0.01804756407566233</v>
       </c>
       <c r="T4">
-        <v>0.01762226276314116</v>
+        <v>0.01804756407566233</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.6785978526487</v>
+        <v>18.194752</v>
       </c>
       <c r="H5">
-        <v>17.6785978526487</v>
+        <v>54.584256</v>
       </c>
       <c r="I5">
-        <v>0.6302820058708316</v>
+        <v>0.6331180841693511</v>
       </c>
       <c r="J5">
-        <v>0.6302820058708316</v>
+        <v>0.6331180841693511</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.7358662697192</v>
+        <v>29.880108</v>
       </c>
       <c r="N5">
-        <v>29.7358662697192</v>
+        <v>89.64032399999999</v>
       </c>
       <c r="O5">
-        <v>0.4870925391936179</v>
+        <v>0.4868991363731112</v>
       </c>
       <c r="P5">
-        <v>0.4870925391936179</v>
+        <v>0.4868991363731112</v>
       </c>
       <c r="Q5">
-        <v>525.6884215825067</v>
+        <v>543.6611547932159</v>
       </c>
       <c r="R5">
-        <v>525.6884215825067</v>
+        <v>4892.950393138944</v>
       </c>
       <c r="S5">
-        <v>0.3070056626476702</v>
+        <v>0.3082646484042558</v>
       </c>
       <c r="T5">
-        <v>0.3070056626476702</v>
+        <v>0.3082646484042558</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.6785978526487</v>
+        <v>18.194752</v>
       </c>
       <c r="H6">
-        <v>17.6785978526487</v>
+        <v>54.584256</v>
       </c>
       <c r="I6">
-        <v>0.6302820058708316</v>
+        <v>0.6331180841693511</v>
       </c>
       <c r="J6">
-        <v>0.6302820058708316</v>
+        <v>0.6331180841693511</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.2494859431407</v>
+        <v>25.29401133333333</v>
       </c>
       <c r="N6">
-        <v>25.2494859431407</v>
+        <v>75.882034</v>
       </c>
       <c r="O6">
-        <v>0.4136027553332855</v>
+        <v>0.412168265041468</v>
       </c>
       <c r="P6">
-        <v>0.4136027553332855</v>
+        <v>0.412168265041468</v>
       </c>
       <c r="Q6">
-        <v>446.3755079748908</v>
+        <v>460.2182632951894</v>
       </c>
       <c r="R6">
-        <v>446.3755079748908</v>
+        <v>4141.964369656705</v>
       </c>
       <c r="S6">
-        <v>0.260686374265166</v>
+        <v>0.2609511823184595</v>
       </c>
       <c r="T6">
-        <v>0.260686374265166</v>
+        <v>0.2609511823184596</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.6785978526487</v>
+        <v>18.194752</v>
       </c>
       <c r="H7">
-        <v>17.6785978526487</v>
+        <v>54.584256</v>
       </c>
       <c r="I7">
-        <v>0.6302820058708316</v>
+        <v>0.6331180841693511</v>
       </c>
       <c r="J7">
-        <v>0.6302820058708316</v>
+        <v>0.6331180841693511</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.06232123117796</v>
+        <v>6.194048666666666</v>
       </c>
       <c r="N7">
-        <v>6.06232123117796</v>
+        <v>18.582146</v>
       </c>
       <c r="O7">
-        <v>0.0993047054730966</v>
+        <v>0.1009325985854208</v>
       </c>
       <c r="P7">
-        <v>0.0993047054730966</v>
+        <v>0.1009325985854208</v>
       </c>
       <c r="Q7">
-        <v>107.1733390995693</v>
+        <v>112.6991793659307</v>
       </c>
       <c r="R7">
-        <v>107.1733390995693</v>
+        <v>1014.292614293376</v>
       </c>
       <c r="S7">
-        <v>0.06258996895799547</v>
+        <v>0.06390225344663578</v>
       </c>
       <c r="T7">
-        <v>0.06258996895799547</v>
+        <v>0.06390225344663578</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.39268785545601</v>
+        <v>5.404926666666667</v>
       </c>
       <c r="H8">
-        <v>5.39268785545601</v>
+        <v>16.21478</v>
       </c>
       <c r="I8">
-        <v>0.1922615213549215</v>
+        <v>0.1880738366907028</v>
       </c>
       <c r="J8">
-        <v>0.1922615213549215</v>
+        <v>0.1880738366907027</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.7358662697192</v>
+        <v>29.880108</v>
       </c>
       <c r="N8">
-        <v>29.7358662697192</v>
+        <v>89.64032399999999</v>
       </c>
       <c r="O8">
-        <v>0.4870925391936179</v>
+        <v>0.4868991363731112</v>
       </c>
       <c r="P8">
-        <v>0.4870925391936179</v>
+        <v>0.4868991363731112</v>
       </c>
       <c r="Q8">
-        <v>160.3562449041787</v>
+        <v>161.49979253208</v>
       </c>
       <c r="R8">
-        <v>160.3562449041787</v>
+        <v>1453.49813278872</v>
       </c>
       <c r="S8">
-        <v>0.09364915262599668</v>
+        <v>0.09157298865908073</v>
       </c>
       <c r="T8">
-        <v>0.09364915262599668</v>
+        <v>0.09157298865908071</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.39268785545601</v>
+        <v>5.404926666666667</v>
       </c>
       <c r="H9">
-        <v>5.39268785545601</v>
+        <v>16.21478</v>
       </c>
       <c r="I9">
-        <v>0.1922615213549215</v>
+        <v>0.1880738366907028</v>
       </c>
       <c r="J9">
-        <v>0.1922615213549215</v>
+        <v>0.1880738366907027</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.2494859431407</v>
+        <v>25.29401133333333</v>
       </c>
       <c r="N9">
-        <v>25.2494859431407</v>
+        <v>75.882034</v>
       </c>
       <c r="O9">
-        <v>0.4136027553332855</v>
+        <v>0.412168265041468</v>
       </c>
       <c r="P9">
-        <v>0.4136027553332855</v>
+        <v>0.412168265041468</v>
       </c>
       <c r="Q9">
-        <v>136.1625962020821</v>
+        <v>136.7122763625023</v>
       </c>
       <c r="R9">
-        <v>136.1625962020821</v>
+        <v>1230.41048726252</v>
       </c>
       <c r="S9">
-        <v>0.07951989497696484</v>
+        <v>0.07751806696849935</v>
       </c>
       <c r="T9">
-        <v>0.07951989497696484</v>
+        <v>0.07751806696849935</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.39268785545601</v>
+        <v>5.404926666666667</v>
       </c>
       <c r="H10">
-        <v>5.39268785545601</v>
+        <v>16.21478</v>
       </c>
       <c r="I10">
-        <v>0.1922615213549215</v>
+        <v>0.1880738366907028</v>
       </c>
       <c r="J10">
-        <v>0.1922615213549215</v>
+        <v>0.1880738366907027</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.06232123117796</v>
+        <v>6.194048666666666</v>
       </c>
       <c r="N10">
-        <v>6.06232123117796</v>
+        <v>18.582146</v>
       </c>
       <c r="O10">
-        <v>0.0993047054730966</v>
+        <v>0.1009325985854208</v>
       </c>
       <c r="P10">
-        <v>0.0993047054730966</v>
+        <v>0.1009325985854208</v>
       </c>
       <c r="Q10">
-        <v>32.69220607924651</v>
+        <v>33.47837881309778</v>
       </c>
       <c r="R10">
-        <v>32.69220607924651</v>
+        <v>301.30540931788</v>
       </c>
       <c r="S10">
-        <v>0.01909247375195995</v>
+        <v>0.01898278106312269</v>
       </c>
       <c r="T10">
-        <v>0.01909247375195995</v>
+        <v>0.01898278106312269</v>
       </c>
     </row>
   </sheetData>
